--- a/lambda-results.xlsx
+++ b/lambda-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\stackage-aws-lambda-nuget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A35D6DC-2DB7-4471-80B8-AE08B23BBE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C4B34-257E-4C08-885B-4AD385B7E141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3128" yWindow="1418" windowWidth="21600" windowHeight="14887" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3818" yWindow="1545" windowWidth="21599" windowHeight="14977" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cold Starts Data" sheetId="1" r:id="rId1"/>
@@ -3397,10 +3397,10 @@
     <t>.NET 8 w/ AOT</t>
   </si>
   <si>
-    <t>DelayDuration</t>
-  </si>
-  <si>
     <t>OverheadDuration</t>
+  </si>
+  <si>
+    <t>WorkDuration</t>
   </si>
 </sst>
 </file>
@@ -3691,7 +3691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DelayDuration</c:v>
+                  <c:v>WorkDuration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4250,7 +4250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DelayDuration</c:v>
+                  <c:v>WorkDuration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20333,8 +20333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2CE0E0-68B6-4B94-841D-1D7455BB9B0F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -20351,10 +20351,10 @@
         <v>1114</v>
       </c>
       <c r="C1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1" t="s">
         <v>1118</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1117</v>
       </c>
       <c r="E1" t="s">
         <v>1115</v>
@@ -20450,8 +20450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264AC9AB-F39F-4FAF-A57E-77AA29C46F20}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="B1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -20468,10 +20468,10 @@
         <v>1114</v>
       </c>
       <c r="C1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1" t="s">
         <v>1118</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1117</v>
       </c>
       <c r="E1" t="s">
         <v>1115</v>
